--- a/Documentos/MUX e Calculos Injeção de Corrente.xlsx
+++ b/Documentos/MUX e Calculos Injeção de Corrente.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvio\TIE-Teste_01\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -347,1651 +347,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>840297</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3267075" y="2219325"/>
-          <a:ext cx="1964247" cy="3200400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>230</xdr:row>
-      <xdr:rowOff>17570</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7962901" y="1922570"/>
-          <a:ext cx="1962150" cy="3192356"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>248</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>264</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagem 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3124200" y="5391150"/>
-          <a:ext cx="2238375" cy="3114675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>895349</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagem 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8039099" y="5324476"/>
-          <a:ext cx="2276475" cy="3333750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>265</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>282</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagem 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3152775" y="8753476"/>
-          <a:ext cx="2305050" cy="3190874"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>266</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagem 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7905750" y="8782050"/>
-          <a:ext cx="2609850" cy="3219451"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>284</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>300</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagem 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3038475" y="12230100"/>
-          <a:ext cx="2352675" cy="3162300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>284</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>300</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagem 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7905750" y="12239626"/>
-          <a:ext cx="2505075" cy="3181350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1969009" cy="3200400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagem 13"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3252788" y="15935325"/>
-          <a:ext cx="1969009" cy="3200400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>17570</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1976438" cy="3192356"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Imagem 14"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7934326" y="15829070"/>
-          <a:ext cx="1976438" cy="3192356"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2243137" cy="3114675"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagem 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3109913" y="19297650"/>
-          <a:ext cx="2243137" cy="3114675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2290763" cy="3333750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Imagem 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8010524" y="19230976"/>
-          <a:ext cx="2290763" cy="3333750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2309812" cy="3190874"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Imagem 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3138488" y="22659976"/>
-          <a:ext cx="2309812" cy="3190874"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2624138" cy="3219451"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Imagem 18"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7877175" y="22688550"/>
-          <a:ext cx="2624138" cy="3219451"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2357437" cy="3162300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Imagem 19"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3024188" y="26136600"/>
-          <a:ext cx="2357437" cy="3162300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2519363" cy="3181350"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Imagem 20"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7877175" y="26146126"/>
-          <a:ext cx="2519363" cy="3181350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1969009" cy="3200400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Imagem 21"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3267075" y="16125825"/>
-          <a:ext cx="1969009" cy="3200400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>17570</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1976438" cy="3192356"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Imagem 22"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7962901" y="16019570"/>
-          <a:ext cx="1976438" cy="3192356"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2243137" cy="3114675"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagem 23"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3124200" y="19488150"/>
-          <a:ext cx="2243137" cy="3114675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2290763" cy="3333750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagem 24"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8039099" y="19421476"/>
-          <a:ext cx="2290763" cy="3333750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2309812" cy="3190874"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Imagem 25"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3152775" y="22850476"/>
-          <a:ext cx="2309812" cy="3190874"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2624138" cy="3219451"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Imagem 26"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7905750" y="22879050"/>
-          <a:ext cx="2624138" cy="3219451"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2357437" cy="3162300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Imagem 27"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3038475" y="26327100"/>
-          <a:ext cx="2357437" cy="3162300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2519363" cy="3181350"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Imagem 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7905750" y="26336626"/>
-          <a:ext cx="2519363" cy="3181350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1964247" cy="3200400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Imagem 29"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3267075" y="43748325"/>
-          <a:ext cx="1964247" cy="3200400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>17570</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1962150" cy="3192356"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Imagem 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7962901" y="43642070"/>
-          <a:ext cx="1962150" cy="3192356"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2238375" cy="3114675"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Imagem 31"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3124200" y="47110650"/>
-          <a:ext cx="2238375" cy="3114675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>174</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2276475" cy="3333750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Imagem 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8039099" y="47043976"/>
-          <a:ext cx="2276475" cy="3333750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2305050" cy="3190874"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Imagem 33"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3152775" y="50472976"/>
-          <a:ext cx="2305050" cy="3190874"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2609850" cy="3219451"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Imagem 34"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7905750" y="50501550"/>
-          <a:ext cx="2609850" cy="3219451"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2352675" cy="3162300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Imagem 35"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3038475" y="53949600"/>
-          <a:ext cx="2352675" cy="3162300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2505075" cy="3181350"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Imagem 36"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7905750" y="53959126"/>
-          <a:ext cx="2505075" cy="3181350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2259,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O374"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K222" sqref="K222"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6928,39 +5283,20 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A358:D358"/>
-    <mergeCell ref="A359:B359"/>
-    <mergeCell ref="C359:D359"/>
-    <mergeCell ref="A367:D367"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="C368:D368"/>
-    <mergeCell ref="A340:D340"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="C341:D341"/>
-    <mergeCell ref="A349:D349"/>
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="C350:D350"/>
-    <mergeCell ref="A322:D322"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="C323:D323"/>
-    <mergeCell ref="A331:D331"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="C332:D332"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="C305:D305"/>
-    <mergeCell ref="A304:D304"/>
-    <mergeCell ref="A313:D313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="C314:D314"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="J286:K286"/>
-    <mergeCell ref="E231:F231"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="E285:F285"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="E249:F249"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="E267:F267"/>
+    <mergeCell ref="E194:F194"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="J213:K213"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="A66:B66"/>
@@ -6977,22 +5313,40 @@
     <mergeCell ref="E139:F139"/>
     <mergeCell ref="A157:I157"/>
     <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E194:F194"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="J213:K213"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="J286:K286"/>
+    <mergeCell ref="E231:F231"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="E285:F285"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="E249:F249"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="E267:F267"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="C305:D305"/>
+    <mergeCell ref="A304:D304"/>
+    <mergeCell ref="A313:D313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="C314:D314"/>
+    <mergeCell ref="A322:D322"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="C323:D323"/>
+    <mergeCell ref="A331:D331"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="C332:D332"/>
+    <mergeCell ref="A340:D340"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="C341:D341"/>
+    <mergeCell ref="A349:D349"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="C350:D350"/>
+    <mergeCell ref="A358:D358"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="C359:D359"/>
+    <mergeCell ref="A367:D367"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="C368:D368"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>